--- a/TAOCA/SinBiAm-TAOCA.xlsx
+++ b/TAOCA/SinBiAm-TAOCA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SinBiAm_Tree_Trait - github.com\SinBiAm_Tree_Trait\TAOCA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{141825D8-6469-466E-A96F-28BABCE361F6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D507CE44-4B28-431A-850A-057ADEF59D7D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7125" xr2:uid="{CB904C78-17E3-42FA-AF87-4A1C1F374737}"/>
   </bookViews>
@@ -1083,7 +1083,7 @@
     <t>País</t>
   </si>
   <si>
-    <t>Pais da amostragem = "BOL" "BRA" "COL" "ECU" "GUF" "GUY" "PER" "SUR" "URY" "VEN"</t>
+    <t>Pais da amostragem = "BOL" "BRA" "COL" "ECU" "GUF" "GUY" "PER" "SUR" "VEN"</t>
   </si>
 </sst>
 </file>
@@ -1634,7 +1634,7 @@
   <dimension ref="A1:C45"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A45" sqref="A45"/>
+      <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
